--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0.xlsx
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="354">
   <si>
     <t>No</t>
   </si>
@@ -1328,6 +1328,98 @@
     <t>重新执行</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>5.2.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量预处理房源积分定时器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScorePreTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScorePreTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScorePreTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日02:00执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前lts停掉了，现在重新启封</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源积分定时器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScoreTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScoreTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScoreTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日03:00执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖RoomScorePreTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1865,7 +1957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2208,6 +2300,30 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2235,28 +2351,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -40194,10 +40295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -40280,20 +40381,20 @@
       <c r="A2" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="116" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="125"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="116" t="s">
         <v>322</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="G2" s="126" t="s">
+      <c r="G2" s="117" t="s">
         <v>323</v>
       </c>
       <c r="H2" s="99" t="s">
@@ -40302,29 +40403,29 @@
       <c r="I2" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="127" t="s">
+      <c r="J2" s="118" t="s">
         <v>326</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="127" t="s">
+      <c r="L2" s="118" t="s">
         <v>326</v>
       </c>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="119" t="s">
         <v>327</v>
       </c>
       <c r="N2" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="130" t="s">
+      <c r="O2" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="120" t="s">
         <v>329</v>
       </c>
-      <c r="Q2" s="128" t="s">
+      <c r="Q2" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="R2" s="128"/>
+      <c r="R2" s="119"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="97"/>
@@ -41605,6 +41706,118 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A32" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="E32" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="H32" s="132" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="K32" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="L32" s="118" t="s">
+        <v>340</v>
+      </c>
+      <c r="M32" s="118" t="s">
+        <v>341</v>
+      </c>
+      <c r="N32" s="118" t="s">
+        <v>342</v>
+      </c>
+      <c r="O32" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="P32" s="120" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q32" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="R32" s="119" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A33" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="F33" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="G33" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="H33" s="132" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" s="118" t="s">
+        <v>349</v>
+      </c>
+      <c r="K33" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="L33" s="118" t="s">
+        <v>350</v>
+      </c>
+      <c r="M33" s="118" t="s">
+        <v>351</v>
+      </c>
+      <c r="N33" s="118" t="s">
+        <v>342</v>
+      </c>
+      <c r="O33" s="119" t="s">
+        <v>352</v>
+      </c>
+      <c r="P33" s="120" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q33" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="R33" s="119" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -41633,19 +41846,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -41683,8 +41896,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -41696,8 +41909,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -41709,8 +41922,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -41722,8 +41935,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -41735,8 +41948,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="118"/>
-      <c r="B7" s="118"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -41748,8 +41961,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="118"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -41761,8 +41974,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="118"/>
-      <c r="B9" s="118"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -41774,8 +41987,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -41836,36 +42049,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="122"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -42150,36 +42363,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="122"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -42223,22 +42436,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="297">
-      <c r="A4" s="123">
+      <c r="A4" s="114">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="114" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="114" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -42490,36 +42703,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="122"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -42563,22 +42776,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="297">
-      <c r="A4" s="123">
+      <c r="A4" s="114">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="114" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="114" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -42882,36 +43095,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="122"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0 20161229\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="364">
   <si>
     <t>No</t>
   </si>
@@ -1420,12 +1415,68 @@
     <t>依赖RoomScorePreTask</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.0</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">renterpc
+</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4j.properties</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t># Global hadoop logs
+log4j.logger.com.mogoroom.util.log.HadoopLogUtil=info,hadoop
+log4j.appender.hadoop=org.apache.log4j.DailyRollingFileAppender
+log4j.appender.hadoop.DatePattern='_'yyyy-MM-dd'.log'
+log4j.appender.hadoop.layout=org.apache.log4j.PatternLayout
+log4j.appender.hadoop.File=/data/mogologs/renterpc/mogoroom-hadoop.log
+log4j.appender.hadoop.layout.ConversionPattern=%m %n
+log4j.additivity.com.mogoroom.util.log.HadoopLogUtil=false</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎分析hadoop日志</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">renter
+</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t># Global hadoop logs
+log4j.logger.com.mogoroom.util.log.HadoopLogUtil=info,hadoop
+log4j.appender.hadoop=org.apache.log4j.DailyRollingFileAppender
+log4j.appender.hadoop.DatePattern='_'yyyy-MM-dd'.log'
+log4j.appender.hadoop.layout=org.apache.log4j.PatternLayout
+log4j.appender.hadoop.File=/data/mogologs/renter/mogoroom-hadoop.log
+log4j.appender.hadoop.layout.ConversionPattern=%m %n
+log4j.additivity.com.mogoroom.util.log.HadoopLogUtil=false</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1706,6 +1757,11 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1957,7 +2013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2324,6 +2380,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2351,14 +2416,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2374,7 +2433,7 @@
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2757,11 +2816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD169"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40294,11 +40353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -41723,16 +41782,16 @@
       <c r="E32" s="116" t="s">
         <v>334</v>
       </c>
-      <c r="F32" s="131" t="s">
+      <c r="F32" s="122" t="s">
         <v>335</v>
       </c>
       <c r="G32" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="H32" s="132" t="s">
+      <c r="H32" s="123" t="s">
         <v>337</v>
       </c>
-      <c r="I32" s="133" t="s">
+      <c r="I32" s="124" t="s">
         <v>258</v>
       </c>
       <c r="J32" s="118" t="s">
@@ -41779,16 +41838,16 @@
       <c r="E33" s="116" t="s">
         <v>348</v>
       </c>
-      <c r="F33" s="131" t="s">
+      <c r="F33" s="122" t="s">
         <v>335</v>
       </c>
       <c r="G33" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="H33" s="132" t="s">
+      <c r="H33" s="123" t="s">
         <v>337</v>
       </c>
-      <c r="I33" s="133" t="s">
+      <c r="I33" s="124" t="s">
         <v>258</v>
       </c>
       <c r="J33" s="118" t="s">
@@ -41826,7 +41885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41846,19 +41905,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -41896,8 +41955,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -41909,8 +41968,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -41922,8 +41981,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="124"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -41935,8 +41994,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -41948,8 +42007,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -41961,8 +42020,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -41974,8 +42033,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -41987,8 +42046,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -42026,7 +42085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42049,36 +42108,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -42340,7 +42399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42363,36 +42422,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -42680,11 +42739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -42703,36 +42762,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -42913,34 +42972,82 @@
       <c r="L7" s="112"/>
       <c r="M7" s="87"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+    <row r="8" spans="1:13" s="134" customFormat="1" ht="148.5">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+    <row r="9" spans="1:13" s="134" customFormat="1" ht="148.5">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="16.5">
@@ -43054,13 +43161,13 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I9 JE8:JE9 TA8:TA9 ACW8:ACW9 AMS8:AMS9 AWO8:AWO9 BGK8:BGK9 BQG8:BQG9 CAC8:CAC9 CJY8:CJY9 CTU8:CTU9 DDQ8:DDQ9 DNM8:DNM9 DXI8:DXI9 EHE8:EHE9 ERA8:ERA9 FAW8:FAW9 FKS8:FKS9 FUO8:FUO9 GEK8:GEK9 GOG8:GOG9 GYC8:GYC9 HHY8:HHY9 HRU8:HRU9 IBQ8:IBQ9 ILM8:ILM9 IVI8:IVI9 JFE8:JFE9 JPA8:JPA9 JYW8:JYW9 KIS8:KIS9 KSO8:KSO9 LCK8:LCK9 LMG8:LMG9 LWC8:LWC9 MFY8:MFY9 MPU8:MPU9 MZQ8:MZQ9 NJM8:NJM9 NTI8:NTI9 ODE8:ODE9 ONA8:ONA9 OWW8:OWW9 PGS8:PGS9 PQO8:PQO9 QAK8:QAK9 QKG8:QKG9 QUC8:QUC9 RDY8:RDY9 RNU8:RNU9 RXQ8:RXQ9 SHM8:SHM9 SRI8:SRI9 TBE8:TBE9 TLA8:TLA9 TUW8:TUW9 UES8:UES9 UOO8:UOO9 UYK8:UYK9 VIG8:VIG9 VSC8:VSC9 WBY8:WBY9 WLU8:WLU9 WVQ8:WVQ9">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB8:JB9 SX8:SX9 ACT8:ACT9 AMP8:AMP9 AWL8:AWL9 BGH8:BGH9 BQD8:BQD9 BZZ8:BZZ9 CJV8:CJV9 CTR8:CTR9 DDN8:DDN9 DNJ8:DNJ9 DXF8:DXF9 EHB8:EHB9 EQX8:EQX9 FAT8:FAT9 FKP8:FKP9 FUL8:FUL9 GEH8:GEH9 GOD8:GOD9 GXZ8:GXZ9 HHV8:HHV9 HRR8:HRR9 IBN8:IBN9 ILJ8:ILJ9 IVF8:IVF9 JFB8:JFB9 JOX8:JOX9 JYT8:JYT9 KIP8:KIP9 KSL8:KSL9 LCH8:LCH9 LMD8:LMD9 LVZ8:LVZ9 MFV8:MFV9 MPR8:MPR9 MZN8:MZN9 NJJ8:NJJ9 NTF8:NTF9 ODB8:ODB9 OMX8:OMX9 OWT8:OWT9 PGP8:PGP9 PQL8:PQL9 QAH8:QAH9 QKD8:QKD9 QTZ8:QTZ9 RDV8:RDV9 RNR8:RNR9 RXN8:RXN9 SHJ8:SHJ9 SRF8:SRF9 TBB8:TBB9 TKX8:TKX9 TUT8:TUT9 UEP8:UEP9 UOL8:UOL9 UYH8:UYH9 VID8:VID9 VRZ8:VRZ9 WBV8:WBV9 WLR8:WLR9 WVN8:WVN9">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -43070,7 +43177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43095,36 +43202,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -43386,7 +43493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
